--- a/Data/Output/matched_exact.xlsx
+++ b/Data/Output/matched_exact.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J198"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7059,7 +7059,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7519,7 +7519,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8347,7 +8347,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8623,7 +8623,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>primary key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
@@ -9405,145 +9405,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>primary key</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Engineering Arabian Construction CO. WLL</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>ENGINEERING ARABIAN CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>ARABIAN CONSTRUCTION ENGINEERING</t>
-        </is>
-      </c>
-      <c r="D196" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>ARABIAN CONSTRUCTION ENGINEERING CO</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>ARABIAN CONSTRUCTION ENGINEERING</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>ARABIAN CONSTRUCTION ENGINEERING</t>
-        </is>
-      </c>
-      <c r="H196" t="n">
-        <v>1808</v>
-      </c>
-      <c r="I196" t="n">
-        <v>99</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>sorted key</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Engineering Arabian Construction CO. WLL</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>ENGINEERING ARABIAN CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>ARABIAN CONSTRUCTION ENGINEERING</t>
-        </is>
-      </c>
-      <c r="D197" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>ARABIAN CONSTRUCTION ENGINEERING CO.</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>ARABIAN CONSTRUCTION ENGINEERING</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>ARABIAN CONSTRUCTION ENGINEERING</t>
-        </is>
-      </c>
-      <c r="H197" t="n">
-        <v>1809</v>
-      </c>
-      <c r="I197" t="n">
-        <v>99</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>sorted key</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Misr Phosphate S.A.E.</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>MISR PHOSPHATE</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>MISR PHOSPHATE</t>
-        </is>
-      </c>
-      <c r="D198" t="n">
-        <v>4177</v>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>PHOSPHATE MISR</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>PHOSPHATE MISR</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>MISR PHOSPHATE</t>
-        </is>
-      </c>
-      <c r="H198" t="n">
-        <v>8845</v>
-      </c>
-      <c r="I198" t="n">
-        <v>99</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>sorted key</t>
+          <t>Exact Match</t>
         </is>
       </c>
     </row>
